--- a/result/yida_data/溢达平台数据下载信息-20201203-wangzf-V1.xlsx
+++ b/result/yida_data/溢达平台数据下载信息-20201203-wangzf-V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\data-download\yida_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\data-download\result\yida_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8760F2-C77A-4C4F-A3BE-6495F9315935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF7F19-8868-4589-9DE9-A9F5234CD085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="5780" windowWidth="10250" windowHeight="3290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="6460" windowWidth="10250" windowHeight="3290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,39 +547,15 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,6 +572,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -896,413 +896,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="20"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="5" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="8" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A6:B18"/>
+    <mergeCell ref="H1:H5"/>
     <mergeCell ref="J1:J5"/>
     <mergeCell ref="F1:F5"/>
     <mergeCell ref="D1:D5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B18"/>
-    <mergeCell ref="H1:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
